--- a/docs/assets/tables/latex_more.xlsx
+++ b/docs/assets/tables/latex_more.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11400" windowHeight="5295"/>
+    <workbookView windowWidth="21600" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>意思</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>greater or equal to</t>
+  </si>
+  <si>
+    <t>小于等于</t>
+  </si>
+  <si>
+    <t>\\leq</t>
+  </si>
+  <si>
+    <t>\$\\leq\$</t>
   </si>
 </sst>
 </file>
@@ -683,7 +692,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +703,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,7 +1022,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1048,9 +1060,15 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4">
@@ -1092,6 +1110,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="\\geq"/>
+    <hyperlink ref="B3" r:id="rId2" display="\\leq"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
